--- a/Daten/Schulferien/Ferien98_90.xlsx
+++ b/Daten/Schulferien/Ferien98_90.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url=""/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/93680e6007ede3e3/Hochschule/DSC_Semester4/Data Analytics and Business Intelligence 2/Projekt/dabi2-project/Daten/Schulferien/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="4" documentId="11_52037A034C422103A3FD6C44158601917959C309" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9B30B206-F9D2-44C8-A85B-A444AC1651E1}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28260" windowHeight="11385"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,48 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="154">
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t xml:space="preserve">Sekretariat der Ständigen Konferenz 
-der Kultusminister der Länder 
-in der Bundesrepublik Deutschland 
-Lennéstr. 6, 53113 Bonn 
-Tel: 0228/501-778 Fax: 0228/501-777 </t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="15"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t xml:space="preserve">FERIEN IM SCHULJAHR 1998/99</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t xml:space="preserve">
-Bundesrepublik Deutschland in den Ländern in der </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <rFont val="Times New Roman"/>
-        <vertAlign val="subscript"/>
-      </rPr>
-      <t xml:space="preserve">1) </t>
-    </r>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="119">
   <si>
     <r>
       <rPr>
@@ -76,9 +36,9 @@
     </r>
     <r>
       <rPr>
-        <sz val="8"/>
-        <rFont val="Times New Roman"/>
         <vertAlign val="superscript"/>
+        <sz val="8"/>
+        <rFont val="Times New Roman"/>
       </rPr>
       <t xml:space="preserve">2) </t>
     </r>
@@ -135,9 +95,9 @@
     </r>
     <r>
       <rPr>
-        <sz val="8"/>
-        <rFont val="Times New Roman"/>
         <vertAlign val="superscript"/>
+        <sz val="8"/>
+        <rFont val="Times New Roman"/>
       </rPr>
       <t>3)</t>
     </r>
@@ -171,9 +131,9 @@
     </r>
     <r>
       <rPr>
-        <sz val="8"/>
-        <rFont val="Times New Roman"/>
         <vertAlign val="superscript"/>
+        <sz val="8"/>
+        <rFont val="Times New Roman"/>
       </rPr>
       <t xml:space="preserve">3) </t>
     </r>
@@ -212,9 +172,9 @@
     </r>
     <r>
       <rPr>
-        <sz val="8"/>
-        <rFont val="Times New Roman"/>
         <vertAlign val="superscript"/>
+        <sz val="8"/>
+        <rFont val="Times New Roman"/>
       </rPr>
       <t xml:space="preserve">3) </t>
     </r>
@@ -289,9 +249,9 @@
     </r>
     <r>
       <rPr>
-        <sz val="8"/>
-        <rFont val="Times New Roman"/>
         <vertAlign val="superscript"/>
+        <sz val="8"/>
+        <rFont val="Times New Roman"/>
       </rPr>
       <t>3)</t>
     </r>
@@ -373,9 +333,9 @@
     </r>
     <r>
       <rPr>
-        <sz val="8"/>
-        <rFont val="Times New Roman"/>
         <vertAlign val="superscript"/>
+        <sz val="8"/>
+        <rFont val="Times New Roman"/>
       </rPr>
       <t>3)</t>
     </r>
@@ -388,9 +348,9 @@
     </r>
     <r>
       <rPr>
-        <sz val="8"/>
-        <rFont val="Times New Roman"/>
         <vertAlign val="superscript"/>
+        <sz val="8"/>
+        <rFont val="Times New Roman"/>
       </rPr>
       <t xml:space="preserve">3) </t>
     </r>
@@ -513,9 +473,9 @@
     </r>
     <r>
       <rPr>
-        <sz val="8"/>
-        <rFont val="Times New Roman"/>
         <vertAlign val="superscript"/>
+        <sz val="8"/>
+        <rFont val="Times New Roman"/>
       </rPr>
       <t xml:space="preserve">4) </t>
     </r>
@@ -530,9 +490,9 @@
     </r>
     <r>
       <rPr>
-        <sz val="8"/>
-        <rFont val="Times New Roman"/>
         <vertAlign val="superscript"/>
+        <sz val="8"/>
+        <rFont val="Times New Roman"/>
       </rPr>
       <t xml:space="preserve">4) </t>
     </r>
@@ -569,118 +529,16 @@
   </si>
   <si>
     <t xml:space="preserve">21.05.-25.05. </t>
-  </si>
-  <si>
-    <t>1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">angegeben ist jeweils der erste und letzte Ferientag; nachträgliche Änderungen einzelner Länder sind vorbehalten. </t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">die Ziffern in Klammern geben, soweit bekannt, die Anzahl der beweglichen Ferientage an, mit denen besondere örtliche Verhältnisse berücksichtigt oder mit denen einzelne Ferienabschnitte verlängert 
-werden können. </t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>3)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">unterrichtsfrei; im Saarland Rosenmontag und Faschingsdienstag </t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>4)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">auf den Inseln Sylt, Föhr, Amrum und Helgoland sowie auf den Halligen enden die Sommerferien und beginnen die Herbstferien jeweils eine Kalenderwoche eher. </t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t xml:space="preserve">Besondere Hinweise auf kirchliche Feiertage sind in der Übersicht nicht mehr enthalten. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stand: Februar 1998 </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <name val="Times New Roman"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="15"/>
-      <name val="Times New Roman"/>
       <family val="2"/>
     </font>
     <font>
@@ -693,6 +551,15 @@
       <name val="Times New Roman"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="8"/>
+      <name val="Times New Roman"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -702,7 +569,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -711,35 +578,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FFFFFFFF"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FFFFFFFF"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FFFFFFFF"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -874,67 +712,61 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+  <cellXfs count="17">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1" horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1" horizontal="left"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1211,541 +1043,477 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25"/>
     <col min="2" max="2" width="36"/>
     <col min="3" max="3" width="15"/>
-    <col min="4" max="4" width="14"/>
-    <col min="5" max="5" width="14"/>
+    <col min="4" max="5" width="14"/>
     <col min="6" max="6" width="15"/>
     <col min="7" max="7" width="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25" ht="68" customHeight="1">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25" ht="26" customHeight="1">
-      <c r="A2" s="5" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="6" t="s">
+    </row>
+    <row r="2" spans="1:7" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>8</v>
       </c>
+      <c r="C2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>10</v>
+      </c>
       <c r="E2" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25" ht="22" customHeight="1">
-      <c r="A3" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="9" t="s">
+    </row>
+    <row r="3" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="B3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="C3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="D3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="E3" s="5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25" ht="22" customHeight="1">
-      <c r="A4" s="8" t="s">
+      <c r="F3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="G3" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="9" t="s">
+    </row>
+    <row r="4" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="B4" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="C4" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="D4" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="E4" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25" ht="22" customHeight="1">
-      <c r="A5" s="8" t="s">
+      <c r="F4" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="G4" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="9" t="s">
+    </row>
+    <row r="5" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="B5" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="C5" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="D5" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="E5" s="5" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25" ht="22" customHeight="1">
-      <c r="A6" s="8" t="s">
+      <c r="F5" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="G5" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="9" t="s">
+    </row>
+    <row r="6" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="B6" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="C6" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="D6" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="G6" s="11" t="s">
+      <c r="E6" s="6" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25" ht="22" customHeight="1">
-      <c r="A7" s="8" t="s">
+      <c r="F6" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="G6" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C7" s="9" t="s">
+    </row>
+    <row r="7" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="B7" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="C7" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="D7" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="G7" s="12" t="s">
+      <c r="E7" s="6" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25" ht="22" customHeight="1">
-      <c r="A8" s="8" t="s">
+      <c r="F7" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="G7" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C8" s="9" t="s">
+    </row>
+    <row r="8" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="B8" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="C8" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="D8" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="G8" s="11" t="s">
+      <c r="E8" s="6" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25" ht="22" customHeight="1">
-      <c r="A9" s="8" t="s">
+      <c r="F8" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="G8" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="C9" s="9" t="s">
+    </row>
+    <row r="9" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="B9" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="C9" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="D9" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="G9" s="12" t="s">
+      <c r="E9" s="5" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25" ht="22" customHeight="1">
-      <c r="A10" s="8" t="s">
+      <c r="F9" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="G9" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C10" s="9" t="s">
+    </row>
+    <row r="10" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="B10" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="C10" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="D10" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="G10" s="11" t="s">
+      <c r="E10" s="6" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25" ht="22" customHeight="1">
-      <c r="A11" s="8" t="s">
+      <c r="F10" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="G10" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="C11" s="9" t="s">
+    </row>
+    <row r="11" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="B11" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="C11" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="D11" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="G11" s="11" t="s">
+      <c r="E11" s="6" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25" ht="22" customHeight="1">
-      <c r="A12" s="8" t="s">
+      <c r="F11" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="G11" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="C12" s="9" t="s">
+    </row>
+    <row r="12" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="B12" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="C12" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="F12" s="9" t="s">
+      <c r="D12" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="G12" s="12" t="s">
+      <c r="E12" s="6" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25" ht="22" customHeight="1">
-      <c r="A13" s="8" t="s">
+      <c r="F12" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="G12" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="C13" s="9" t="s">
+    </row>
+    <row r="13" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="B13" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="E13" s="10" t="s">
+      <c r="C13" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="F13" s="9" t="s">
+      <c r="D13" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="G13" s="12" t="s">
+      <c r="E13" s="9" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25" ht="22" customHeight="1">
-      <c r="A14" s="8" t="s">
+      <c r="F13" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="G13" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="C14" s="9" t="s">
+    </row>
+    <row r="14" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="B14" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="E14" s="13" t="s">
+      <c r="C14" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="F14" s="9" t="s">
+      <c r="D14" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="G14" s="12" t="s">
+      <c r="E14" s="5" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25" ht="22" customHeight="1">
-      <c r="A15" s="8" t="s">
+      <c r="F14" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="G14" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="C15" s="9" t="s">
+    </row>
+    <row r="15" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="B15" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="E15" s="9" t="s">
+      <c r="C15" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="F15" s="9" t="s">
+      <c r="D15" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="G15" s="11" t="s">
+      <c r="E15" s="5" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25" ht="22" customHeight="1">
-      <c r="A16" s="8" t="s">
+      <c r="F15" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="G15" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="C16" s="9" t="s">
+    </row>
+    <row r="16" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="B16" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="E16" s="9" t="s">
+      <c r="C16" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="F16" s="9" t="s">
+      <c r="D16" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="G16" s="11" t="s">
+      <c r="E16" s="6" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25" ht="22" customHeight="1">
-      <c r="A17" s="8" t="s">
+      <c r="F16" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="G16" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="C17" s="9" t="s">
+    </row>
+    <row r="17" spans="1:7" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="B17" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="E17" s="10" t="s">
+      <c r="C17" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="F17" s="9" t="s">
+      <c r="D17" s="11" t="s">
         <v>115</v>
       </c>
+      <c r="E17" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>117</v>
+      </c>
       <c r="G17" s="12" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25" ht="21" customHeight="1">
-      <c r="A18" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="B18" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="C18" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="D18" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="E18" s="15" t="s">
-        <v>121</v>
-      </c>
-      <c r="F18" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="G18" s="16" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25" ht="13" customHeight="1">
-      <c r="A19" s="17" t="s">
-        <v>124</v>
-      </c>
-      <c r="B19" s="17" t="s">
-        <v>125</v>
-      </c>
-      <c r="C19" s="0" t="s">
-        <v>126</v>
-      </c>
-      <c r="D19" s="0" t="s">
-        <v>127</v>
-      </c>
-      <c r="E19" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="F19" s="0" t="s">
-        <v>129</v>
-      </c>
-      <c r="G19" s="0" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25" ht="25" customHeight="1">
-      <c r="A20" s="17" t="s">
-        <v>131</v>
-      </c>
-      <c r="B20" s="18" t="s">
-        <v>132</v>
-      </c>
-      <c r="C20" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="D20" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="E20" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="F20" s="0" t="s">
-        <v>136</v>
-      </c>
-      <c r="G20" s="0" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25" ht="13" customHeight="1">
-      <c r="A21" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="B21" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="C21" s="0" t="s">
-        <v>140</v>
-      </c>
-      <c r="D21" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="E21" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="F21" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="G21" s="0" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25" ht="13" customHeight="1">
-      <c r="A22" s="17" t="s">
-        <v>145</v>
-      </c>
-      <c r="B22" s="17" t="s">
-        <v>146</v>
-      </c>
-      <c r="C22" s="0" t="s">
-        <v>147</v>
-      </c>
-      <c r="D22" s="0" t="s">
-        <v>148</v>
-      </c>
-      <c r="E22" s="0" t="s">
-        <v>149</v>
-      </c>
-      <c r="F22" s="0" t="s">
-        <v>150</v>
-      </c>
-      <c r="G22" s="0" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25" ht="13" customHeight="1">
-      <c r="A23" s="17" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25" ht="13" customHeight="1">
-      <c r="A24" s="17" t="s">
-        <v>153</v>
-      </c>
+    </row>
+    <row r="18" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="1:7" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="13"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+    </row>
+    <row r="20" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="13"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+    </row>
+    <row r="21" spans="1:7" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="13"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+    </row>
+    <row r="22" spans="1:7" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="13"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+    </row>
+    <row r="23" spans="1:7" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="14"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+    </row>
+    <row r="24" spans="1:7" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="14"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="C1:E1"/>
+  <mergeCells count="6">
+    <mergeCell ref="A23:G23"/>
+    <mergeCell ref="A24:G24"/>
     <mergeCell ref="B19:G19"/>
     <mergeCell ref="B20:G20"/>
     <mergeCell ref="B21:G21"/>
     <mergeCell ref="B22:G22"/>
-    <mergeCell ref="A23:G23"/>
-    <mergeCell ref="A24:G24"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Daten/Schulferien/Ferien98_90.xlsx
+++ b/Daten/Schulferien/Ferien98_90.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/93680e6007ede3e3/Hochschule/DSC_Semester4/Data Analytics and Business Intelligence 2/Projekt/dabi2-project/Daten/Schulferien/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="11_52037A034C422103A3FD6C44158601917959C309" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9B30B206-F9D2-44C8-A85B-A444AC1651E1}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="11_52037A034C422103A3FD6C44158601917959C309" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{650B1F98-DCB3-42A9-9772-A4E9FA23AE41}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="118">
   <si>
     <r>
       <rPr>
@@ -408,9 +408,6 @@
   </si>
   <si>
     <t xml:space="preserve">21.12.-05.01. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3) </t>
   </si>
   <si>
     <t xml:space="preserve">26.03.-12.04. </t>
@@ -779,6 +776,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1047,7 +1048,7 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1349,106 +1350,104 @@
       <c r="D13" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="E13" s="9"/>
+      <c r="F13" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="G13" s="8" t="s">
         <v>89</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B14" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="C14" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="D14" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="E14" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="F14" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="G14" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B15" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="C15" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="D15" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="E15" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="F15" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="G15" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B16" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="C16" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="D16" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="E16" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="F16" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="G16" s="8" t="s">
         <v>110</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="B17" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="C17" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="D17" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="E17" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="E17" s="11" t="s">
+      <c r="F17" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="F17" s="11" t="s">
+      <c r="G17" s="12" t="s">
         <v>117</v>
-      </c>
-      <c r="G17" s="12" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
